--- a/doc/05_ファイル構成一覧表_C3チームにんじん戦線.xlsx
+++ b/doc/05_ファイル構成一覧表_C3チームにんじん戦線.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\6月配布物\6月配布物\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE75E42-B2D0-4769-9F3C-BF4937B47C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05135C62-B744-4CDA-B2C2-AA0CBBBF7D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="600" windowWidth="10755" windowHeight="10920" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="98">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -172,10 +172,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>dao</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>loginDao.java</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -197,10 +193,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Users.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>User関連のデータ操作モデル</t>
     <rPh sb="4" eb="6">
       <t>カンレン</t>
@@ -546,6 +538,57 @@
     <rPh sb="9" eb="12">
       <t>ガメンヨウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダークモード画面用</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録画面用css</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UsersDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録画面用js</t>
+    <rPh sb="0" eb="4">
+      <t>シンキトウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Registar.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Registar.css</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -956,10 +999,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:G56"/>
+  <dimension ref="B2:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1012,7 +1055,7 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B56" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B59" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1076,13 +1119,13 @@
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -1130,16 +1173,16 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -1149,16 +1192,16 @@
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>32</v>
+        <v>19</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -1168,16 +1211,16 @@
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>37</v>
+        <v>28</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="G12" s="1"/>
     </row>
@@ -1187,16 +1230,16 @@
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>35</v>
+        <v>7</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -1206,16 +1249,16 @@
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -1225,16 +1268,16 @@
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>40</v>
+        <v>15</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -1244,16 +1287,16 @@
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>42</v>
+        <v>19</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -1263,16 +1306,16 @@
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G17" s="1"/>
     </row>
@@ -1282,16 +1325,16 @@
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G18" s="1"/>
     </row>
@@ -1301,16 +1344,16 @@
         <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -1320,16 +1363,16 @@
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="G20" s="1"/>
     </row>
@@ -1339,16 +1382,16 @@
         <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G21" s="1"/>
     </row>
@@ -1358,16 +1401,16 @@
         <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G22" s="1"/>
     </row>
@@ -1377,16 +1420,16 @@
         <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="G23" s="1"/>
     </row>
@@ -1396,16 +1439,16 @@
         <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G24" s="1"/>
     </row>
@@ -1415,16 +1458,16 @@
         <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G25" s="1"/>
     </row>
@@ -1434,16 +1477,16 @@
         <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G26" s="1"/>
     </row>
@@ -1453,16 +1496,16 @@
         <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G27" s="1"/>
     </row>
@@ -1472,16 +1515,16 @@
         <v>26</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G28" s="1"/>
     </row>
@@ -1491,16 +1534,16 @@
         <v>27</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G29" s="1"/>
     </row>
@@ -1510,16 +1553,16 @@
         <v>28</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G30" s="1"/>
     </row>
@@ -1529,16 +1572,16 @@
         <v>29</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G31" s="1"/>
     </row>
@@ -1548,16 +1591,16 @@
         <v>30</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G32" s="1"/>
     </row>
@@ -1567,16 +1610,16 @@
         <v>31</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G33" s="1"/>
     </row>
@@ -1586,16 +1629,16 @@
         <v>32</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G34" s="1"/>
     </row>
@@ -1605,16 +1648,16 @@
         <v>33</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G35" s="1"/>
     </row>
@@ -1624,16 +1667,16 @@
         <v>34</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G36" s="1"/>
     </row>
@@ -1643,16 +1686,16 @@
         <v>35</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="G37" s="1"/>
     </row>
@@ -1662,16 +1705,16 @@
         <v>36</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="G38" s="1"/>
     </row>
@@ -1681,16 +1724,16 @@
         <v>37</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G39" s="1"/>
     </row>
@@ -1700,16 +1743,16 @@
         <v>38</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G40" s="1"/>
     </row>
@@ -1719,16 +1762,16 @@
         <v>39</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="G41" s="1"/>
     </row>
@@ -1738,16 +1781,16 @@
         <v>40</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="G42" s="1"/>
     </row>
@@ -1757,16 +1800,16 @@
         <v>41</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G43" s="1"/>
     </row>
@@ -1776,16 +1819,16 @@
         <v>42</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E44" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="G44" s="1"/>
     </row>
@@ -1795,16 +1838,16 @@
         <v>43</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G45" s="1"/>
     </row>
@@ -1814,16 +1857,16 @@
         <v>44</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G46" s="1"/>
     </row>
@@ -1833,16 +1876,16 @@
         <v>45</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G47" s="1"/>
     </row>
@@ -1852,16 +1895,16 @@
         <v>46</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G48" s="1"/>
     </row>
@@ -1871,16 +1914,16 @@
         <v>47</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G49" s="1"/>
     </row>
@@ -1890,16 +1933,16 @@
         <v>48</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G50" s="1"/>
     </row>
@@ -1909,16 +1952,16 @@
         <v>49</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G51" s="1"/>
     </row>
@@ -1928,16 +1971,16 @@
         <v>50</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G52" s="1"/>
     </row>
@@ -1947,16 +1990,16 @@
         <v>51</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G53" s="1"/>
     </row>
@@ -1966,16 +2009,16 @@
         <v>52</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G54" s="1"/>
     </row>
@@ -1985,16 +2028,16 @@
         <v>53</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G55" s="1"/>
     </row>
@@ -2004,35 +2047,95 @@
         <v>54</v>
       </c>
       <c r="C56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B57" s="1">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B58" s="1">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E56" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G56" s="1"/>
+      <c r="E58" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B59" s="1">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G59" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="E15" r:id="rId1" display="home.js" xr:uid="{8FBF5C91-7311-48C4-A8BB-D4AF938BAB8C}"/>
-    <hyperlink ref="E16" r:id="rId2" display="home.css" xr:uid="{326C7A2E-F549-478C-A2B5-23060A0FC036}"/>
-    <hyperlink ref="E12" r:id="rId3" display="home.js" xr:uid="{95878E75-FA70-47D4-8A25-CCD3E35E8C19}"/>
-    <hyperlink ref="E13" r:id="rId4" display="home.css" xr:uid="{70ACB2EF-B03A-4EA4-8DE7-F15BE40D513E}"/>
+    <hyperlink ref="E17" r:id="rId1" display="home.js" xr:uid="{8FBF5C91-7311-48C4-A8BB-D4AF938BAB8C}"/>
+    <hyperlink ref="E18" r:id="rId2" display="home.css" xr:uid="{326C7A2E-F549-478C-A2B5-23060A0FC036}"/>
+    <hyperlink ref="E14" r:id="rId3" display="home.js" xr:uid="{95878E75-FA70-47D4-8A25-CCD3E35E8C19}"/>
+    <hyperlink ref="E15" r:id="rId4" display="home.css" xr:uid="{70ACB2EF-B03A-4EA4-8DE7-F15BE40D513E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2207,27 +2310,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2252,9 +2343,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/05_ファイル構成一覧表_C3チームにんじん戦線.xlsx
+++ b/doc/05_ファイル構成一覧表_C3チームにんじん戦線.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05135C62-B744-4CDA-B2C2-AA0CBBBF7D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B96BE8-8F3B-4BBD-A1CF-23EDDFCBC4F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="101">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -589,6 +589,36 @@
   </si>
   <si>
     <t>Registar.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>石黒・河上</t>
+    <rPh sb="0" eb="2">
+      <t>イシグロ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カワカミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>城丸・中島</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウマル</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ナカシマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山口・渡邉</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマグチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ワタナベ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1001,8 +1031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1051,7 +1081,9 @@
       <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
@@ -1070,7 +1102,9 @@
       <c r="F4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="1">
@@ -1089,7 +1123,9 @@
       <c r="F5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="1">
@@ -1108,7 +1144,9 @@
       <c r="F6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="1">
@@ -1127,7 +1165,9 @@
       <c r="F7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="1">
@@ -1146,7 +1186,9 @@
       <c r="F8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
@@ -1165,7 +1207,9 @@
       <c r="F9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B10" s="1">
@@ -1184,7 +1228,9 @@
       <c r="F10" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="1">
@@ -1203,7 +1249,9 @@
       <c r="F11" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B12" s="1">
@@ -1222,7 +1270,9 @@
       <c r="F12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B13" s="1">
@@ -1241,7 +1291,9 @@
       <c r="F13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B14" s="1">
@@ -1260,7 +1312,9 @@
       <c r="F14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B15" s="1">
@@ -1279,7 +1333,9 @@
       <c r="F15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B16" s="1">
@@ -1298,7 +1354,9 @@
       <c r="F16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="1">
@@ -1317,7 +1375,9 @@
       <c r="F17" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B18" s="1">
@@ -1336,7 +1396,9 @@
       <c r="F18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" s="1">
@@ -1355,7 +1417,9 @@
       <c r="F19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" s="1">
@@ -1374,7 +1438,9 @@
       <c r="F20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B21" s="1">
@@ -1393,7 +1459,9 @@
       <c r="F21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B22" s="1">
@@ -1412,7 +1480,9 @@
       <c r="F22" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B23" s="1">
@@ -1431,7 +1501,9 @@
       <c r="F23" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B24" s="1">
@@ -1450,7 +1522,9 @@
       <c r="F24" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G24" s="1"/>
+      <c r="G24" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B25" s="1">
@@ -1469,7 +1543,9 @@
       <c r="F25" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B26" s="1">
@@ -1488,7 +1564,9 @@
       <c r="F26" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B27" s="1">
@@ -1507,7 +1585,9 @@
       <c r="F27" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G27" s="1"/>
+      <c r="G27" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B28" s="1">
@@ -1526,7 +1606,9 @@
       <c r="F28" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G28" s="1"/>
+      <c r="G28" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B29" s="1">
@@ -1545,7 +1627,9 @@
       <c r="F29" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G29" s="1"/>
+      <c r="G29" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B30" s="1">
@@ -1564,7 +1648,9 @@
       <c r="F30" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G30" s="1"/>
+      <c r="G30" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B31" s="1">
@@ -1583,7 +1669,9 @@
       <c r="F31" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G31" s="1"/>
+      <c r="G31" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B32" s="1">
@@ -1602,7 +1690,9 @@
       <c r="F32" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G32" s="1"/>
+      <c r="G32" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B33" s="1">
@@ -1621,7 +1711,9 @@
       <c r="F33" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G33" s="1"/>
+      <c r="G33" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B34" s="1">
@@ -1640,7 +1732,9 @@
       <c r="F34" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G34" s="1"/>
+      <c r="G34" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B35" s="1">
@@ -1659,7 +1753,9 @@
       <c r="F35" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G35" s="1"/>
+      <c r="G35" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B36" s="1">
@@ -1678,7 +1774,9 @@
       <c r="F36" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G36" s="1"/>
+      <c r="G36" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B37" s="1">
@@ -1697,7 +1795,9 @@
       <c r="F37" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G37" s="1"/>
+      <c r="G37" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B38" s="1">
@@ -1716,7 +1816,9 @@
       <c r="F38" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G38" s="1"/>
+      <c r="G38" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B39" s="1">
@@ -1735,7 +1837,9 @@
       <c r="F39" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="G39" s="1"/>
+      <c r="G39" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B40" s="1">
@@ -1754,7 +1858,9 @@
       <c r="F40" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="G40" s="1"/>
+      <c r="G40" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B41" s="1">
@@ -1773,7 +1879,9 @@
       <c r="F41" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="G41" s="1"/>
+      <c r="G41" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B42" s="1">
@@ -1792,7 +1900,9 @@
       <c r="F42" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="G42" s="1"/>
+      <c r="G42" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B43" s="1">
@@ -1811,7 +1921,9 @@
       <c r="F43" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G43" s="1"/>
+      <c r="G43" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B44" s="1">
@@ -1830,7 +1942,9 @@
       <c r="F44" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G44" s="1"/>
+      <c r="G44" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B45" s="1">
@@ -1849,7 +1963,9 @@
       <c r="F45" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G45" s="1"/>
+      <c r="G45" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B46" s="1">
@@ -1868,7 +1984,9 @@
       <c r="F46" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G46" s="1"/>
+      <c r="G46" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B47" s="1">
@@ -1887,7 +2005,9 @@
       <c r="F47" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G47" s="1"/>
+      <c r="G47" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B48" s="1">
@@ -1906,7 +2026,9 @@
       <c r="F48" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G48" s="1"/>
+      <c r="G48" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B49" s="1">
@@ -1925,7 +2047,9 @@
       <c r="F49" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G49" s="1"/>
+      <c r="G49" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B50" s="1">
@@ -1944,7 +2068,9 @@
       <c r="F50" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G50" s="1"/>
+      <c r="G50" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B51" s="1">
@@ -1963,7 +2089,9 @@
       <c r="F51" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G51" s="1"/>
+      <c r="G51" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B52" s="1">
@@ -1982,7 +2110,9 @@
       <c r="F52" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G52" s="1"/>
+      <c r="G52" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B53" s="1">
@@ -2001,7 +2131,9 @@
       <c r="F53" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G53" s="1"/>
+      <c r="G53" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B54" s="1">
@@ -2020,7 +2152,9 @@
       <c r="F54" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G54" s="1"/>
+      <c r="G54" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B55" s="1">
@@ -2039,7 +2173,9 @@
       <c r="F55" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G55" s="1"/>
+      <c r="G55" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B56" s="1">
@@ -2058,7 +2194,9 @@
       <c r="F56" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G56" s="1"/>
+      <c r="G56" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B57" s="1">
@@ -2077,7 +2215,9 @@
       <c r="F57" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G57" s="1"/>
+      <c r="G57" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B58" s="1">
@@ -2096,7 +2236,9 @@
       <c r="F58" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G58" s="1"/>
+      <c r="G58" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B59" s="1">
@@ -2115,7 +2257,9 @@
       <c r="F59" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G59" s="1"/>
+      <c r="G59" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2130,12 +2274,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2310,15 +2451,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2343,18 +2496,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/05_ファイル構成一覧表_C3チームにんじん戦線.xlsx
+++ b/doc/05_ファイル構成一覧表_C3チームにんじん戦線.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B96BE8-8F3B-4BBD-A1CF-23EDDFCBC4F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F850E8-2270-48B6-ABBC-9996AFDF9573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="10575" yWindow="285" windowWidth="10755" windowHeight="10920" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1031,8 +1031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" topLeftCell="C14" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2274,9 +2274,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2451,27 +2454,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2496,9 +2487,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/05_ファイル構成一覧表_C3チームにんじん戦線.xlsx
+++ b/doc/05_ファイル構成一覧表_C3チームにんじん戦線.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F850E8-2270-48B6-ABBC-9996AFDF9573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B57AAD-D08C-4166-A336-6F17A9CC97B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10575" yWindow="285" windowWidth="10755" windowHeight="10920" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="117">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -619,6 +619,70 @@
     <rPh sb="3" eb="5">
       <t>ワタナベ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>term.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tag.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>difficulty.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reward.level.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>achievement.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>goal.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reward.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>userテーブル　Beans</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>termテーブル　Beans</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tagテーブル　Beans</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>difficultyテーブル　Beans</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rewardテーブル　Beans</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>achievementテーブル　Beans</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>goalテーブル　Beans</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dao</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1029,10 +1093,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:G59"/>
+  <dimension ref="B2:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C14" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1087,7 +1151,7 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B59" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B68" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1157,13 +1221,13 @@
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>98</v>
@@ -1175,16 +1239,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>98</v>
@@ -1196,16 +1260,16 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>98</v>
@@ -1217,16 +1281,16 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>98</v>
@@ -1238,16 +1302,16 @@
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>98</v>
@@ -1262,16 +1326,16 @@
         <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>29</v>
+        <v>7</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
@@ -1280,16 +1344,16 @@
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>32</v>
+        <v>11</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>99</v>
@@ -1301,16 +1365,16 @@
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>99</v>
@@ -1322,16 +1386,16 @@
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>99</v>
@@ -1343,16 +1407,16 @@
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>34</v>
+        <v>7</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>99</v>
@@ -1364,13 +1428,13 @@
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>39</v>
@@ -1385,13 +1449,13 @@
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>39</v>
@@ -1406,13 +1470,13 @@
         <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>39</v>
@@ -1427,19 +1491,19 @@
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
@@ -1448,19 +1512,19 @@
         <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
@@ -1469,13 +1533,13 @@
         <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>50</v>
@@ -1490,13 +1554,13 @@
         <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>50</v>
@@ -1505,46 +1569,25 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B24" s="1">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
@@ -1553,19 +1596,19 @@
         <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
@@ -1574,13 +1617,13 @@
         <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>53</v>
@@ -1595,13 +1638,13 @@
         <v>26</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>53</v>
@@ -1616,19 +1659,19 @@
         <v>27</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
@@ -1637,19 +1680,19 @@
         <v>28</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
@@ -1658,13 +1701,13 @@
         <v>29</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>58</v>
@@ -1679,13 +1722,13 @@
         <v>30</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>58</v>
@@ -1700,16 +1743,16 @@
         <v>31</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>99</v>
@@ -1721,16 +1764,16 @@
         <v>32</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>99</v>
@@ -1742,13 +1785,13 @@
         <v>33</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>62</v>
@@ -1763,13 +1806,13 @@
         <v>34</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>62</v>
@@ -1784,19 +1827,19 @@
         <v>35</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.4">
@@ -1805,19 +1848,19 @@
         <v>36</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.4">
@@ -1826,13 +1869,13 @@
         <v>37</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>91</v>
@@ -1847,13 +1890,13 @@
         <v>38</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>91</v>
@@ -1868,16 +1911,16 @@
         <v>39</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>100</v>
@@ -1889,16 +1932,16 @@
         <v>40</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>100</v>
@@ -1910,13 +1953,13 @@
         <v>41</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>75</v>
@@ -1931,13 +1974,13 @@
         <v>42</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>75</v>
@@ -1952,16 +1995,16 @@
         <v>43</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>100</v>
@@ -1973,16 +2016,16 @@
         <v>44</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>100</v>
@@ -1994,13 +2037,13 @@
         <v>45</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>76</v>
@@ -2015,13 +2058,13 @@
         <v>46</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>76</v>
@@ -2036,19 +2079,19 @@
         <v>47</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.4">
@@ -2057,19 +2100,19 @@
         <v>48</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.4">
@@ -2078,13 +2121,13 @@
         <v>49</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>81</v>
@@ -2099,13 +2142,13 @@
         <v>50</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>81</v>
@@ -2120,16 +2163,16 @@
         <v>51</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>98</v>
@@ -2141,16 +2184,16 @@
         <v>52</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>98</v>
@@ -2162,13 +2205,13 @@
         <v>53</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>82</v>
@@ -2183,13 +2226,13 @@
         <v>54</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>82</v>
@@ -2204,16 +2247,16 @@
         <v>55</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>98</v>
@@ -2225,16 +2268,16 @@
         <v>56</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>98</v>
@@ -2246,40 +2289,226 @@
         <v>57</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="G59" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B60" s="1">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B61" s="1">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B62" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B63" s="1">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B64" s="1">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B65" s="1">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B66" s="1">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G66" s="1" t="s">
         <v>98</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B67" s="1">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B68" s="1">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="E17" r:id="rId1" display="home.js" xr:uid="{8FBF5C91-7311-48C4-A8BB-D4AF938BAB8C}"/>
-    <hyperlink ref="E18" r:id="rId2" display="home.css" xr:uid="{326C7A2E-F549-478C-A2B5-23060A0FC036}"/>
-    <hyperlink ref="E14" r:id="rId3" display="home.js" xr:uid="{95878E75-FA70-47D4-8A25-CCD3E35E8C19}"/>
-    <hyperlink ref="E15" r:id="rId4" display="home.css" xr:uid="{70ACB2EF-B03A-4EA4-8DE7-F15BE40D513E}"/>
+    <hyperlink ref="E16" r:id="rId1" display="home.js" xr:uid="{8FBF5C91-7311-48C4-A8BB-D4AF938BAB8C}"/>
+    <hyperlink ref="E17" r:id="rId2" display="home.css" xr:uid="{326C7A2E-F549-478C-A2B5-23060A0FC036}"/>
+    <hyperlink ref="E13" r:id="rId3" display="home.js" xr:uid="{95878E75-FA70-47D4-8A25-CCD3E35E8C19}"/>
+    <hyperlink ref="E14" r:id="rId4" display="home.css" xr:uid="{70ACB2EF-B03A-4EA4-8DE7-F15BE40D513E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2454,15 +2683,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2487,18 +2728,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/05_ファイル構成一覧表_C3チームにんじん戦線.xlsx
+++ b/doc/05_ファイル構成一覧表_C3チームにんじん戦線.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B57AAD-D08C-4166-A336-6F17A9CC97B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{893A0532-CB64-4E7A-922C-B8721755EBDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="118">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -161,10 +161,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Registar.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>新規登録画面用jsp</t>
     <rPh sb="0" eb="7">
       <t>シンキトウロクガメンヨウ</t>
@@ -214,10 +210,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>homeServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>home.js</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -250,10 +242,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>goalServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>目標一覧閲覧画面用</t>
     <rPh sb="0" eb="8">
       <t>モクヒョウイチランエツランガメン</t>
@@ -290,10 +278,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>joysServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>joys.jsp</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -327,10 +311,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>profile.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プロフィール画面用</t>
     <rPh sb="6" eb="9">
       <t>ガメンヨウ</t>
@@ -350,10 +330,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>goalRegistarServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>目標登録画面用</t>
     <rPh sb="0" eb="4">
       <t>モクヒョウトウロク</t>
@@ -392,10 +368,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>goalUpdateServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>goalUpdate.jsp</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -408,10 +380,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>joysUpdateServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>joysUpdate.jsp</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -421,10 +389,6 @@
   </si>
   <si>
     <t>joysUpdate.css</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>joysRegistarServlet.java</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -464,18 +428,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Ranking.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Ranking.js</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Ranking.css</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ヒント画面用</t>
     <rPh sb="3" eb="5">
       <t>ガメン</t>
@@ -500,31 +452,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Result.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Result.js</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Result.css</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>HintServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Hint.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Hint.js</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Hint.css</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -567,10 +495,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>UsersDao.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>新規登録画面用js</t>
     <rPh sb="0" eb="4">
       <t>シンキトウロク</t>
@@ -584,14 +508,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Registar.js</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Registar.css</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>石黒・河上</t>
     <rPh sb="0" eb="2">
       <t>イシグロ</t>
@@ -683,6 +599,94 @@
   </si>
   <si>
     <t>dao</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>registar.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>registar.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>registar.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HomeServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GoalServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JoysServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Profile.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GoalRegistarServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GoalUpdateServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JoysUpdateServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JoysRegistarServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ranking.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ranking.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ranking.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hint.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hint.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hint.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>result.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>result.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>result.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>color.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>usersDao.java</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1095,8 +1099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1146,7 +1150,7 @@
         <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
@@ -1167,7 +1171,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
@@ -1188,7 +1192,7 @@
         <v>17</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
@@ -1209,7 +1213,7 @@
         <v>21</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
@@ -1230,7 +1234,7 @@
         <v>23</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
@@ -1245,13 +1249,13 @@
         <v>11</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
@@ -1266,13 +1270,13 @@
         <v>15</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
@@ -1287,13 +1291,13 @@
         <v>19</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
@@ -1305,16 +1309,16 @@
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="G11" s="1" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
@@ -1329,13 +1333,13 @@
         <v>7</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
@@ -1350,13 +1354,13 @@
         <v>11</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
@@ -1371,13 +1375,13 @@
         <v>15</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
@@ -1392,13 +1396,13 @@
         <v>19</v>
       </c>
       <c r="E15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G15" s="1" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.4">
@@ -1413,13 +1417,13 @@
         <v>7</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
@@ -1434,13 +1438,13 @@
         <v>11</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
@@ -1455,13 +1459,13 @@
         <v>15</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
@@ -1476,13 +1480,13 @@
         <v>19</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
@@ -1497,13 +1501,13 @@
         <v>7</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
@@ -1518,13 +1522,13 @@
         <v>11</v>
       </c>
       <c r="E21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="G21" s="1" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
@@ -1539,13 +1543,13 @@
         <v>15</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
@@ -1560,13 +1564,13 @@
         <v>19</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
@@ -1581,13 +1585,13 @@
         <v>7</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
@@ -1602,13 +1606,13 @@
         <v>11</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
@@ -1623,13 +1627,13 @@
         <v>15</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.4">
@@ -1644,13 +1648,13 @@
         <v>19</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
@@ -1665,13 +1669,13 @@
         <v>7</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
@@ -1686,13 +1690,13 @@
         <v>11</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
@@ -1707,13 +1711,13 @@
         <v>15</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
@@ -1728,13 +1732,13 @@
         <v>19</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
@@ -1749,13 +1753,13 @@
         <v>7</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.4">
@@ -1770,13 +1774,13 @@
         <v>11</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
@@ -1791,13 +1795,13 @@
         <v>15</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.4">
@@ -1812,13 +1816,13 @@
         <v>19</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.4">
@@ -1833,13 +1837,13 @@
         <v>7</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.4">
@@ -1854,13 +1858,13 @@
         <v>11</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.4">
@@ -1875,13 +1879,13 @@
         <v>15</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.4">
@@ -1896,13 +1900,13 @@
         <v>19</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.4">
@@ -1917,13 +1921,13 @@
         <v>7</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.4">
@@ -1938,13 +1942,13 @@
         <v>11</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.4">
@@ -1959,13 +1963,13 @@
         <v>15</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.4">
@@ -1980,13 +1984,13 @@
         <v>19</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.4">
@@ -2001,13 +2005,13 @@
         <v>7</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.4">
@@ -2022,13 +2026,13 @@
         <v>11</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.4">
@@ -2043,13 +2047,13 @@
         <v>15</v>
       </c>
       <c r="E47" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.4">
@@ -2064,13 +2068,13 @@
         <v>19</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.4">
@@ -2085,13 +2089,13 @@
         <v>7</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.4">
@@ -2106,13 +2110,13 @@
         <v>11</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.4">
@@ -2127,13 +2131,13 @@
         <v>15</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.4">
@@ -2148,13 +2152,13 @@
         <v>19</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.4">
@@ -2169,13 +2173,13 @@
         <v>7</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.4">
@@ -2190,13 +2194,13 @@
         <v>11</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.4">
@@ -2211,13 +2215,13 @@
         <v>15</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.4">
@@ -2232,13 +2236,13 @@
         <v>19</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.4">
@@ -2253,13 +2257,13 @@
         <v>19</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.4">
@@ -2271,16 +2275,16 @@
         <v>6</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.4">
@@ -2292,16 +2296,16 @@
         <v>6</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.4">
@@ -2313,16 +2317,16 @@
         <v>6</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.4">
@@ -2334,16 +2338,16 @@
         <v>6</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.4">
@@ -2355,16 +2359,16 @@
         <v>6</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.4">
@@ -2376,16 +2380,16 @@
         <v>6</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.4">
@@ -2397,16 +2401,16 @@
         <v>6</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.4">
@@ -2418,16 +2422,16 @@
         <v>6</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.4">
@@ -2439,16 +2443,16 @@
         <v>6</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="E66" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F66" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F66" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="G66" s="1" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.4">
@@ -2460,16 +2464,16 @@
         <v>6</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.4">
@@ -2481,16 +2485,16 @@
         <v>6</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2506,9 +2510,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2683,27 +2690,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2728,9 +2723,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/05_ファイル構成一覧表_C3チームにんじん戦線.xlsx
+++ b/doc/05_ファイル構成一覧表_C3チームにんじん戦線.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{893A0532-CB64-4E7A-922C-B8721755EBDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657C5BF1-37B9-410C-9208-7B03FA8342A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -626,10 +626,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Profile.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>GoalRegistarServlet.java</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -687,6 +683,10 @@
   </si>
   <si>
     <t>usersDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ProfileServlet.java</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1099,8 +1099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1312,7 +1312,7 @@
         <v>27</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>28</v>
@@ -1585,7 +1585,7 @@
         <v>7</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>48</v>
@@ -1669,7 +1669,7 @@
         <v>7</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>52</v>
@@ -1753,7 +1753,7 @@
         <v>7</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>56</v>
@@ -1837,7 +1837,7 @@
         <v>7</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>73</v>
@@ -1921,7 +1921,7 @@
         <v>7</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>66</v>
@@ -2026,7 +2026,7 @@
         <v>11</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>67</v>
@@ -2047,7 +2047,7 @@
         <v>15</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>67</v>
@@ -2068,7 +2068,7 @@
         <v>19</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>67</v>
@@ -2110,7 +2110,7 @@
         <v>11</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>69</v>
@@ -2131,7 +2131,7 @@
         <v>15</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>69</v>
@@ -2152,7 +2152,7 @@
         <v>19</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>69</v>
@@ -2194,7 +2194,7 @@
         <v>11</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>70</v>
@@ -2215,7 +2215,7 @@
         <v>15</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>70</v>
@@ -2236,7 +2236,7 @@
         <v>19</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>70</v>
@@ -2257,7 +2257,7 @@
         <v>19</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>74</v>
@@ -2510,12 +2510,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2690,15 +2687,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2723,18 +2732,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/05_ファイル構成一覧表_C3チームにんじん戦線.xlsx
+++ b/doc/05_ファイル構成一覧表_C3チームにんじん戦線.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657C5BF1-37B9-410C-9208-7B03FA8342A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543F3AE7-13F2-4287-ABEE-D32265E16208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="11775" yWindow="705" windowWidth="8655" windowHeight="9090" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -554,10 +554,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>reward.level.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>achievement.java</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -687,6 +683,10 @@
   </si>
   <si>
     <t>ProfileServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rewardLevel.java</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1099,8 +1099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1249,7 +1249,7 @@
         <v>11</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>24</v>
@@ -1270,7 +1270,7 @@
         <v>15</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>76</v>
@@ -1291,7 +1291,7 @@
         <v>19</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>75</v>
@@ -1312,7 +1312,7 @@
         <v>27</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>28</v>
@@ -1333,7 +1333,7 @@
         <v>7</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>29</v>
@@ -1417,7 +1417,7 @@
         <v>7</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>36</v>
@@ -1501,7 +1501,7 @@
         <v>7</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>46</v>
@@ -1585,7 +1585,7 @@
         <v>7</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>48</v>
@@ -1669,7 +1669,7 @@
         <v>7</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>52</v>
@@ -1753,7 +1753,7 @@
         <v>7</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>56</v>
@@ -1837,7 +1837,7 @@
         <v>7</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>73</v>
@@ -1921,7 +1921,7 @@
         <v>7</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>66</v>
@@ -2026,7 +2026,7 @@
         <v>11</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>67</v>
@@ -2047,7 +2047,7 @@
         <v>15</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>67</v>
@@ -2068,7 +2068,7 @@
         <v>19</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>67</v>
@@ -2110,7 +2110,7 @@
         <v>11</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>69</v>
@@ -2131,7 +2131,7 @@
         <v>15</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>69</v>
@@ -2152,7 +2152,7 @@
         <v>19</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>69</v>
@@ -2194,7 +2194,7 @@
         <v>11</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>70</v>
@@ -2215,7 +2215,7 @@
         <v>15</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>70</v>
@@ -2236,7 +2236,7 @@
         <v>19</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>70</v>
@@ -2257,7 +2257,7 @@
         <v>19</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>74</v>
@@ -2281,7 +2281,7 @@
         <v>80</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>77</v>
@@ -2302,7 +2302,7 @@
         <v>81</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>78</v>
@@ -2323,7 +2323,7 @@
         <v>82</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>78</v>
@@ -2344,7 +2344,7 @@
         <v>83</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>78</v>
@@ -2362,10 +2362,10 @@
         <v>27</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>79</v>
@@ -2383,10 +2383,10 @@
         <v>27</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>79</v>
@@ -2404,10 +2404,10 @@
         <v>27</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>78</v>
@@ -2425,10 +2425,10 @@
         <v>27</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>79</v>
@@ -2443,7 +2443,7 @@
         <v>6</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>25</v>
@@ -2464,7 +2464,7 @@
         <v>6</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>40</v>
@@ -2485,7 +2485,7 @@
         <v>6</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>45</v>
@@ -2510,9 +2510,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2687,27 +2690,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2732,9 +2723,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/05_ファイル構成一覧表_C3チームにんじん戦線.xlsx
+++ b/doc/05_ファイル構成一覧表_C3チームにんじん戦線.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543F3AE7-13F2-4287-ABEE-D32265E16208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A07324A-5DD2-4CAD-9460-B7E11E398A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11775" yWindow="705" windowWidth="8655" windowHeight="9090" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="116">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -189,16 +189,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>User関連のデータ操作モデル</t>
-    <rPh sb="4" eb="6">
-      <t>カンレン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ソウサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ホーム画面用</t>
     <rPh sb="3" eb="6">
       <t>ガメンヨウ</t>
@@ -675,10 +665,6 @@
   </si>
   <si>
     <t>color.css</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>usersDao.java</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1097,10 +1083,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:G68"/>
+  <dimension ref="B2:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1150,12 +1136,12 @@
         <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B68" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B66" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1171,7 +1157,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
@@ -1192,7 +1178,7 @@
         <v>17</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
@@ -1213,7 +1199,7 @@
         <v>21</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
@@ -1234,7 +1220,7 @@
         <v>23</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
@@ -1249,13 +1235,13 @@
         <v>11</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
@@ -1270,13 +1256,13 @@
         <v>15</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
@@ -1291,13 +1277,13 @@
         <v>19</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
@@ -1309,12 +1295,12 @@
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -1327,19 +1313,19 @@
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>98</v>
+        <v>11</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
@@ -1348,19 +1334,19 @@
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
@@ -1369,19 +1355,19 @@
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
@@ -1390,19 +1376,19 @@
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>32</v>
+        <v>7</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.4">
@@ -1411,19 +1397,19 @@
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
@@ -1432,19 +1418,19 @@
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
@@ -1453,19 +1439,19 @@
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
@@ -1474,16 +1460,16 @@
         <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>78</v>
@@ -1495,19 +1481,19 @@
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
@@ -1516,19 +1502,19 @@
         <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
@@ -1537,19 +1523,19 @@
         <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
@@ -1558,19 +1544,40 @@
         <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B24" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
@@ -1579,19 +1586,19 @@
         <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>116</v>
+        <v>49</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
@@ -1600,19 +1607,19 @@
         <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
@@ -1621,16 +1628,16 @@
         <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>77</v>
@@ -1642,16 +1649,16 @@
         <v>26</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>77</v>
@@ -1663,19 +1670,19 @@
         <v>27</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
@@ -1684,19 +1691,19 @@
         <v>28</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
@@ -1705,19 +1712,19 @@
         <v>29</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
@@ -1726,19 +1733,19 @@
         <v>30</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E32" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="G32" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
@@ -1747,19 +1754,19 @@
         <v>31</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.4">
@@ -1768,19 +1775,19 @@
         <v>32</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
@@ -1789,16 +1796,16 @@
         <v>33</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>78</v>
@@ -1810,16 +1817,16 @@
         <v>34</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>78</v>
@@ -1831,19 +1838,19 @@
         <v>35</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.4">
@@ -1852,19 +1859,19 @@
         <v>36</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.4">
@@ -1873,19 +1880,19 @@
         <v>37</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.4">
@@ -1894,19 +1901,19 @@
         <v>38</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>62</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.4">
@@ -1915,19 +1922,19 @@
         <v>39</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.4">
@@ -1936,19 +1943,19 @@
         <v>40</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.4">
@@ -1957,19 +1964,19 @@
         <v>41</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>66</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.4">
@@ -1978,19 +1985,19 @@
         <v>42</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>66</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.4">
@@ -1999,19 +2006,19 @@
         <v>43</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.4">
@@ -2020,19 +2027,19 @@
         <v>44</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.4">
@@ -2041,19 +2048,19 @@
         <v>45</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.4">
@@ -2062,19 +2069,19 @@
         <v>46</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>107</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.4">
@@ -2083,19 +2090,19 @@
         <v>47</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.4">
@@ -2104,19 +2111,19 @@
         <v>48</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.4">
@@ -2125,19 +2132,19 @@
         <v>49</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>69</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.4">
@@ -2146,10 +2153,10 @@
         <v>50</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>110</v>
@@ -2158,7 +2165,7 @@
         <v>69</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.4">
@@ -2167,19 +2174,19 @@
         <v>51</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.4">
@@ -2188,19 +2195,19 @@
         <v>52</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.4">
@@ -2209,19 +2216,19 @@
         <v>53</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.4">
@@ -2230,19 +2237,19 @@
         <v>54</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.4">
@@ -2251,16 +2258,16 @@
         <v>55</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>77</v>
@@ -2278,10 +2285,10 @@
         <v>27</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>77</v>
@@ -2299,13 +2306,13 @@
         <v>27</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.4">
@@ -2320,10 +2327,10 @@
         <v>27</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>78</v>
@@ -2344,7 +2351,7 @@
         <v>83</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>78</v>
@@ -2362,13 +2369,13 @@
         <v>27</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.4">
@@ -2383,13 +2390,13 @@
         <v>27</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.4">
@@ -2401,16 +2408,16 @@
         <v>6</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F64" s="2" t="s">
         <v>93</v>
       </c>
+      <c r="E64" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="G64" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.4">
@@ -2422,16 +2429,16 @@
         <v>6</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.4">
@@ -2443,82 +2450,31 @@
         <v>6</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>26</v>
+        <v>93</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B67" s="1">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G67" s="1" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B68" s="1">
-        <f t="shared" si="0"/>
-        <v>66</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="E16" r:id="rId1" display="home.js" xr:uid="{8FBF5C91-7311-48C4-A8BB-D4AF938BAB8C}"/>
-    <hyperlink ref="E17" r:id="rId2" display="home.css" xr:uid="{326C7A2E-F549-478C-A2B5-23060A0FC036}"/>
-    <hyperlink ref="E13" r:id="rId3" display="home.js" xr:uid="{95878E75-FA70-47D4-8A25-CCD3E35E8C19}"/>
-    <hyperlink ref="E14" r:id="rId4" display="home.css" xr:uid="{70ACB2EF-B03A-4EA4-8DE7-F15BE40D513E}"/>
+    <hyperlink ref="E15" r:id="rId1" display="home.js" xr:uid="{8FBF5C91-7311-48C4-A8BB-D4AF938BAB8C}"/>
+    <hyperlink ref="E16" r:id="rId2" display="home.css" xr:uid="{326C7A2E-F549-478C-A2B5-23060A0FC036}"/>
+    <hyperlink ref="E12" r:id="rId3" display="home.js" xr:uid="{95878E75-FA70-47D4-8A25-CCD3E35E8C19}"/>
+    <hyperlink ref="E13" r:id="rId4" display="home.css" xr:uid="{70ACB2EF-B03A-4EA4-8DE7-F15BE40D513E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2689,6 +2645,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2696,14 +2661,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2718,6 +2675,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/doc/05_ファイル構成一覧表_C3チームにんじん戦線.xlsx
+++ b/doc/05_ファイル構成一覧表_C3チームにんじん戦線.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A07324A-5DD2-4CAD-9460-B7E11E398A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A50FD75-B167-4E69-BBC8-4F3F436133F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="117">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -438,10 +438,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ResultServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>HintServlet.java</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -673,6 +669,14 @@
   </si>
   <si>
     <t>rewardLevel.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>result.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>result Beans</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -680,7 +684,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -702,6 +706,22 @@
       <color theme="10"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -752,7 +772,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -766,6 +786,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1085,8 +1114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1136,7 +1165,7 @@
         <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
@@ -1157,7 +1186,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
@@ -1178,7 +1207,7 @@
         <v>17</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
@@ -1199,7 +1228,7 @@
         <v>21</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
@@ -1220,7 +1249,7 @@
         <v>23</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
@@ -1235,13 +1264,13 @@
         <v>11</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
@@ -1256,13 +1285,13 @@
         <v>15</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
@@ -1277,13 +1306,13 @@
         <v>19</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
@@ -1298,13 +1327,13 @@
         <v>7</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
@@ -1325,7 +1354,7 @@
         <v>32</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
@@ -1346,7 +1375,7 @@
         <v>34</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
@@ -1367,7 +1396,7 @@
         <v>33</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
@@ -1382,13 +1411,13 @@
         <v>7</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>35</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.4">
@@ -1409,7 +1438,7 @@
         <v>35</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
@@ -1430,7 +1459,7 @@
         <v>35</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
@@ -1451,7 +1480,7 @@
         <v>35</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
@@ -1466,13 +1495,13 @@
         <v>7</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
@@ -1493,7 +1522,7 @@
         <v>45</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
@@ -1514,7 +1543,7 @@
         <v>45</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
@@ -1535,7 +1564,7 @@
         <v>45</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
@@ -1550,13 +1579,13 @@
         <v>7</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>47</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
@@ -1577,7 +1606,7 @@
         <v>47</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
@@ -1598,7 +1627,7 @@
         <v>47</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
@@ -1619,7 +1648,7 @@
         <v>47</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
@@ -1634,13 +1663,13 @@
         <v>7</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>51</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.4">
@@ -1661,7 +1690,7 @@
         <v>51</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
@@ -1682,7 +1711,7 @@
         <v>51</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
@@ -1703,7 +1732,7 @@
         <v>51</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
@@ -1718,13 +1747,13 @@
         <v>7</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>55</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
@@ -1745,7 +1774,7 @@
         <v>55</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
@@ -1766,7 +1795,7 @@
         <v>55</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.4">
@@ -1787,7 +1816,7 @@
         <v>55</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
@@ -1802,13 +1831,13 @@
         <v>7</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.4">
@@ -1826,10 +1855,10 @@
         <v>59</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.4">
@@ -1847,10 +1876,10 @@
         <v>60</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.4">
@@ -1868,10 +1897,10 @@
         <v>61</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.4">
@@ -1886,13 +1915,13 @@
         <v>7</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.4">
@@ -1913,7 +1942,7 @@
         <v>65</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.4">
@@ -1934,7 +1963,7 @@
         <v>65</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.4">
@@ -1955,7 +1984,7 @@
         <v>65</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.4">
@@ -1976,7 +2005,7 @@
         <v>66</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.4">
@@ -1991,13 +2020,13 @@
         <v>11</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>66</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.4">
@@ -2012,13 +2041,13 @@
         <v>15</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>66</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.4">
@@ -2033,13 +2062,13 @@
         <v>19</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>66</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.4">
@@ -2054,13 +2083,13 @@
         <v>7</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>68</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.4">
@@ -2075,13 +2104,13 @@
         <v>11</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>68</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.4">
@@ -2096,13 +2125,13 @@
         <v>15</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>68</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.4">
@@ -2117,13 +2146,13 @@
         <v>19</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>68</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.4">
@@ -2132,19 +2161,19 @@
         <v>49</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>69</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.4">
@@ -2153,10 +2182,10 @@
         <v>50</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>110</v>
@@ -2165,7 +2194,7 @@
         <v>69</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.4">
@@ -2174,10 +2203,10 @@
         <v>51</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>111</v>
@@ -2186,7 +2215,7 @@
         <v>69</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.4">
@@ -2204,10 +2233,10 @@
         <v>112</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.4">
@@ -2216,19 +2245,19 @@
         <v>53</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.4">
@@ -2270,28 +2299,28 @@
         <v>87</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B58" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="B58" s="5">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="E58" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F58" s="2" t="s">
+      <c r="F58" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G58" s="1" t="s">
-        <v>77</v>
+      <c r="G58" s="5" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.4">
@@ -2306,7 +2335,7 @@
         <v>27</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>89</v>
@@ -2330,10 +2359,10 @@
         <v>115</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.4">
@@ -2348,13 +2377,13 @@
         <v>27</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.4">
@@ -2369,13 +2398,13 @@
         <v>27</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.4">
@@ -2390,13 +2419,13 @@
         <v>27</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.4">
@@ -2408,7 +2437,7 @@
         <v>6</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>25</v>
@@ -2417,7 +2446,7 @@
         <v>26</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.4">
@@ -2429,7 +2458,7 @@
         <v>6</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>39</v>
@@ -2438,7 +2467,7 @@
         <v>40</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.4">
@@ -2450,7 +2479,7 @@
         <v>6</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>44</v>
@@ -2459,7 +2488,7 @@
         <v>46</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2471,10 +2500,26 @@
     <hyperlink ref="E13" r:id="rId4" display="home.css" xr:uid="{70ACB2EF-B03A-4EA4-8DE7-F15BE40D513E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2645,22 +2690,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2677,29 +2732,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/doc/05_ファイル構成一覧表_C3チームにんじん戦線.xlsx
+++ b/doc/05_ファイル構成一覧表_C3チームにんじん戦線.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A50FD75-B167-4E69-BBC8-4F3F436133F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F822F2-315F-458E-AA47-7E9FE690CFCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="4650" yWindow="1560" windowWidth="15375" windowHeight="7875" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="119">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -677,6 +677,14 @@
   </si>
   <si>
     <t>result Beans</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>goal_result.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>goal_resultテーブル　Beans</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1112,10 +1120,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:G66"/>
+  <dimension ref="B2:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" topLeftCell="B52" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1170,7 +1178,7 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B66" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B67" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -2437,16 +2445,16 @@
         <v>6</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.4">
@@ -2460,14 +2468,14 @@
       <c r="D65" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E65" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>40</v>
+      <c r="E65" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.4">
@@ -2482,12 +2490,33 @@
         <v>92</v>
       </c>
       <c r="E66" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B67" s="1">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="F67" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G66" s="1" t="s">
+      <c r="G67" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2505,18 +2534,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2691,6 +2720,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -2703,14 +2740,6 @@
     <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
     <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/doc/05_ファイル構成一覧表_C3チームにんじん戦線.xlsx
+++ b/doc/05_ファイル構成一覧表_C3チームにんじん戦線.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F822F2-315F-458E-AA47-7E9FE690CFCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0889DF94-CE56-43D1-841F-8D7E1B63BF8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="1560" windowWidth="15375" windowHeight="7875" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="121">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -685,6 +685,20 @@
   </si>
   <si>
     <t>goal_resultテーブル　Beans</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>achievementDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>達成済みリスト作成用</t>
+    <rPh sb="0" eb="3">
+      <t>タッセイズ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>サクセイヨウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1120,10 +1134,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:G67"/>
+  <dimension ref="B2:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B52" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="G64" sqref="G64"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2501,7 +2515,7 @@
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B67" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>65</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -2518,6 +2532,27 @@
       </c>
       <c r="G67" s="1" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B68" s="1">
+        <f>ROW()-2</f>
+        <v>66</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2534,21 +2569,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2719,10 +2739,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2745,20 +2791,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/05_ファイル構成一覧表_C3チームにんじん戦線.xlsx
+++ b/doc/05_ファイル構成一覧表_C3チームにんじん戦線.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0889DF94-CE56-43D1-841F-8D7E1B63BF8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA801D4-3436-4847-9CFF-D2E6A3189AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="125">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -698,6 +698,40 @@
     </rPh>
     <rPh sb="7" eb="10">
       <t>サクセイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CheckjoysServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CheckgoalServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>joys交換計算用</t>
+    <rPh sb="4" eb="6">
+      <t>コウカン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ケイサンヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標計算用</t>
+    <rPh sb="0" eb="2">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ケイサンヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1134,10 +1168,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:G68"/>
+  <dimension ref="B2:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1192,7 +1226,7 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B67" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B66" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -2552,6 +2586,48 @@
         <v>120</v>
       </c>
       <c r="G68" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B69" s="1">
+        <f t="shared" ref="B69:B70" si="1">ROW()-2</f>
+        <v>67</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B70" s="1">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G70" s="1" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2569,6 +2645,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2739,12 +2821,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2755,6 +2831,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2773,23 +2866,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>

--- a/doc/05_ファイル構成一覧表_C3チームにんじん戦線.xlsx
+++ b/doc/05_ファイル構成一覧表_C3チームにんじん戦線.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA801D4-3436-4847-9CFF-D2E6A3189AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A8FEA1-504C-4E7F-A98F-2CAEF5B37800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="4425" yWindow="1965" windowWidth="15375" windowHeight="7875" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="144">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -330,10 +330,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>goalRegistar.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>goalRegistar.js</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -715,10 +711,7 @@
       <t>コウカン</t>
     </rPh>
     <rPh sb="6" eb="9">
-      <t>ケイサンヨウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ガメン</t>
+      <t>ケイサンヨウガメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -728,10 +721,162 @@
       <t>モクヒョウ</t>
     </rPh>
     <rPh sb="2" eb="5">
-      <t>ケイサンヨウ</t>
-    </rPh>
+      <t>ケイサンヨウガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>goalpointDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標ポイント計算呼び出し用</t>
+    <rPh sb="0" eb="2">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>joyspointDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Joysポイント消費呼び出し用</t>
+    <rPh sb="8" eb="10">
+      <t>ショウヒ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>result_joys.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジョイス交換リザルト　Beans</t>
+    <rPh sb="4" eb="6">
+      <t>コウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジョイス交換リザルト画面</t>
+    <rPh sb="4" eb="6">
+      <t>コウカン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>result_joys.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>goalupdateDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標更新削除用</t>
+    <rPh sb="0" eb="7">
+      <t>モクヒョウコウシンサクジョヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>homeRegistar.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>result_joys_false.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Joys交換成功リザルト画面用</t>
+    <rPh sb="4" eb="6">
+      <t>コウカン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Joys交換失敗リザルト画面用</t>
+    <rPh sb="4" eb="6">
+      <t>コウカン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rankingDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>渡邉</t>
+    <rPh sb="0" eb="2">
+      <t>ワタナベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LogoutServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウト用</t>
     <rPh sb="5" eb="6">
-      <t>ガメン</t>
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GoalInsert.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標登録用</t>
+    <rPh sb="0" eb="2">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>トウロクヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1168,10 +1313,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:G70"/>
+  <dimension ref="B2:G80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1221,49 +1366,47 @@
         <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B66" si="0">ROW()-2</f>
+        <f>ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>75</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B5:B69" si="0">ROW()-2</f>
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
@@ -1272,19 +1415,19 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
@@ -1293,19 +1436,19 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
@@ -1314,19 +1457,19 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
@@ -1335,19 +1478,19 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
@@ -1356,19 +1499,19 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>73</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
@@ -1377,19 +1520,19 @@
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
@@ -1398,19 +1541,19 @@
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>29</v>
+        <v>7</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
@@ -1419,19 +1562,19 @@
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
@@ -1440,19 +1583,19 @@
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
@@ -1461,19 +1604,19 @@
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>97</v>
+        <v>19</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.4">
@@ -1482,19 +1625,19 @@
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>35</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
@@ -1503,19 +1646,19 @@
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>35</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
@@ -1524,19 +1667,19 @@
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>35</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
@@ -1545,19 +1688,19 @@
         <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
@@ -1566,19 +1709,19 @@
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
@@ -1587,19 +1730,19 @@
         <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
@@ -1608,19 +1751,19 @@
         <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
@@ -1629,19 +1772,19 @@
         <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>113</v>
+        <v>43</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
@@ -1650,19 +1793,19 @@
         <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>47</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
@@ -1671,19 +1814,19 @@
         <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>47</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
@@ -1692,19 +1835,19 @@
         <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>47</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
@@ -1713,19 +1856,19 @@
         <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.4">
@@ -1734,19 +1877,19 @@
         <v>26</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>51</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
@@ -1755,19 +1898,19 @@
         <v>27</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>53</v>
+        <v>134</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>51</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
@@ -1776,19 +1919,19 @@
         <v>28</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>51</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
@@ -1797,19 +1940,19 @@
         <v>29</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
@@ -1818,19 +1961,19 @@
         <v>30</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
@@ -1839,19 +1982,19 @@
         <v>31</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.4">
@@ -1860,19 +2003,19 @@
         <v>32</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
@@ -1881,19 +2024,19 @@
         <v>33</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.4">
@@ -1902,19 +2045,19 @@
         <v>34</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.4">
@@ -1923,19 +2066,19 @@
         <v>35</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.4">
@@ -1944,19 +2087,19 @@
         <v>36</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.4">
@@ -1965,19 +2108,19 @@
         <v>37</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.4">
@@ -1986,19 +2129,19 @@
         <v>38</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.4">
@@ -2007,19 +2150,19 @@
         <v>39</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E41" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="G41" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.4">
@@ -2028,19 +2171,19 @@
         <v>40</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.4">
@@ -2049,19 +2192,19 @@
         <v>41</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.4">
@@ -2070,19 +2213,19 @@
         <v>42</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.4">
@@ -2091,19 +2234,19 @@
         <v>43</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.4">
@@ -2112,19 +2255,19 @@
         <v>44</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.4">
@@ -2133,19 +2276,19 @@
         <v>45</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.4">
@@ -2154,19 +2297,19 @@
         <v>46</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.4">
@@ -2175,19 +2318,19 @@
         <v>47</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.4">
@@ -2196,19 +2339,19 @@
         <v>48</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.4">
@@ -2217,61 +2360,59 @@
         <v>49</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B52" s="1">
-        <f t="shared" si="0"/>
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>69</v>
+        <v>136</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B53" s="1">
-        <f t="shared" si="0"/>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>69</v>
+        <v>137</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.4">
@@ -2280,19 +2421,19 @@
         <v>52</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.4">
@@ -2301,19 +2442,19 @@
         <v>53</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.4">
@@ -2322,19 +2463,19 @@
         <v>54</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.4">
@@ -2343,40 +2484,40 @@
         <v>55</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D57" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B58" s="1">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E57" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="B58" s="5">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="G58" s="5" t="s">
-        <v>76</v>
+      <c r="E58" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.4">
@@ -2391,13 +2532,13 @@
         <v>27</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.4">
@@ -2412,34 +2553,34 @@
         <v>27</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B61" s="1">
+    <row r="61" spans="2:7" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="B61" s="5">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D61" s="1" t="s">
+      <c r="C61" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E61" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>77</v>
+      <c r="E61" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.4">
@@ -2454,10 +2595,10 @@
         <v>27</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>76</v>
@@ -2475,13 +2616,13 @@
         <v>27</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.4">
@@ -2496,10 +2637,10 @@
         <v>27</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>76</v>
@@ -2514,13 +2655,13 @@
         <v>6</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>75</v>
@@ -2535,13 +2676,13 @@
         <v>6</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>76</v>
@@ -2549,62 +2690,62 @@
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B67" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B68" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>120</v>
+        <v>91</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B69" s="1">
-        <f t="shared" ref="B69:B70" si="1">ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>67</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>75</v>
@@ -2612,32 +2753,242 @@
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B70" s="1">
+        <f t="shared" ref="B70:B75" si="1">ROW()-2</f>
+        <v>68</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B71" s="1">
         <f t="shared" si="1"/>
-        <v>68</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D70" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B72" s="1">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B73" s="1">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B74" s="1">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B75" s="1">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B76" s="1">
+        <f t="shared" ref="B76:B78" si="2">ROW()-2</f>
+        <v>74</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="E76" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F76" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F70" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G70" s="1" t="s">
+      <c r="G76" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B77" s="1">
+        <f t="shared" si="2"/>
         <v>75</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B78" s="1">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B79" s="1">
+        <f>ROW()-2</f>
+        <v>77</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B80" s="1">
+        <f>ROW()-2</f>
+        <v>78</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="E15" r:id="rId1" display="home.js" xr:uid="{8FBF5C91-7311-48C4-A8BB-D4AF938BAB8C}"/>
-    <hyperlink ref="E16" r:id="rId2" display="home.css" xr:uid="{326C7A2E-F549-478C-A2B5-23060A0FC036}"/>
-    <hyperlink ref="E12" r:id="rId3" display="home.js" xr:uid="{95878E75-FA70-47D4-8A25-CCD3E35E8C19}"/>
-    <hyperlink ref="E13" r:id="rId4" display="home.css" xr:uid="{70ACB2EF-B03A-4EA4-8DE7-F15BE40D513E}"/>
+    <hyperlink ref="E16" r:id="rId1" display="home.js" xr:uid="{8FBF5C91-7311-48C4-A8BB-D4AF938BAB8C}"/>
+    <hyperlink ref="E17" r:id="rId2" display="home.css" xr:uid="{326C7A2E-F549-478C-A2B5-23060A0FC036}"/>
+    <hyperlink ref="E13" r:id="rId3" display="home.js" xr:uid="{95878E75-FA70-47D4-8A25-CCD3E35E8C19}"/>
+    <hyperlink ref="E14" r:id="rId4" display="home.css" xr:uid="{70ACB2EF-B03A-4EA4-8DE7-F15BE40D513E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
@@ -2645,9 +2996,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2822,27 +3176,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2867,9 +3209,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>